--- a/modelling/esg_lexicon/cnt_df.xlsx
+++ b/modelling/esg_lexicon/cnt_df.xlsx
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -656,7 +656,7 @@
         <v>2021</v>
       </c>
       <c r="C17">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>11</v>
@@ -673,7 +673,7 @@
         <v>2020</v>
       </c>
       <c r="C18">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -688,7 +688,7 @@
         <v>2021</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>13</v>
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -726,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -790,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -822,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -839,7 +839,7 @@
         <v>77</v>
       </c>
       <c r="E28">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -854,7 +854,7 @@
         <v>45</v>
       </c>
       <c r="E29">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -897,7 +897,7 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>7</v>
@@ -912,7 +912,7 @@
         <v>2021</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="E34">
         <v>7</v>
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -964,7 +964,7 @@
         <v>13</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>9</v>
@@ -979,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -1028,7 +1028,7 @@
         <v>14</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -1043,7 +1043,7 @@
         <v>11</v>
       </c>
       <c r="D41">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -1121,7 +1121,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>12</v>
@@ -1136,7 +1136,7 @@
         <v>2021</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>8</v>
@@ -1153,13 +1153,13 @@
         <v>2020</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D48">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E48">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1168,10 +1168,10 @@
         <v>2021</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D49">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D56">
         <v>14</v>
@@ -1296,10 +1296,10 @@
         <v>2021</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D57">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E57">
         <v>7</v>
@@ -1319,7 +1319,7 @@
         <v>21</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1334,7 +1334,7 @@
         <v>18</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1345,13 +1345,13 @@
         <v>2020</v>
       </c>
       <c r="C60">
-        <v>344</v>
+        <v>248</v>
       </c>
       <c r="D60">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E60">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1360,13 +1360,13 @@
         <v>2021</v>
       </c>
       <c r="C61">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="D61">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1444,10 +1444,10 @@
         <v>10</v>
       </c>
       <c r="D66">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E66">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1462,7 +1462,7 @@
         <v>20</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1619,10 +1619,10 @@
         <v>4</v>
       </c>
       <c r="D77">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E77">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1808,7 +1808,7 @@
         <v>2021</v>
       </c>
       <c r="C89">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>48</v>
@@ -1863,7 +1863,7 @@
         <v>12</v>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1878,7 +1878,7 @@
         <v>20</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1953,7 +1953,7 @@
         <v>2020</v>
       </c>
       <c r="C98">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D98">
         <v>24</v>
@@ -1968,7 +1968,7 @@
         <v>2021</v>
       </c>
       <c r="C99">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D99">
         <v>12</v>
@@ -1991,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2006,7 +2006,7 @@
         <v>4</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E102">
         <v>3</v>
@@ -2064,10 +2064,10 @@
         <v>2021</v>
       </c>
       <c r="C105">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D105">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E107">
         <v>7</v>
@@ -2145,13 +2145,13 @@
         <v>2020</v>
       </c>
       <c r="C110">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D110">
         <v>15</v>
       </c>
       <c r="E110">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2160,13 +2160,13 @@
         <v>2021</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D111">
         <v>8</v>
       </c>
       <c r="E111">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2209,13 +2209,13 @@
         <v>2020</v>
       </c>
       <c r="C114">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D114">
         <v>12</v>
       </c>
       <c r="E114">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2230,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="E115">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2259,7 +2259,7 @@
         <v>3</v>
       </c>
       <c r="D117">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E117">
         <v>13</v>
@@ -2337,7 +2337,7 @@
         <v>2020</v>
       </c>
       <c r="C122">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>2021</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -2433,10 +2433,10 @@
         <v>2020</v>
       </c>
       <c r="C128">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D128">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -2448,13 +2448,13 @@
         <v>2021</v>
       </c>
       <c r="C129">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D129">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E129">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2704,7 +2704,7 @@
         <v>2021</v>
       </c>
       <c r="C145">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D145">
         <v>20</v>
@@ -2838,7 +2838,7 @@
         <v>16</v>
       </c>
       <c r="E153">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E166">
         <v>9</v>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -3123,7 +3123,7 @@
         <v>6</v>
       </c>
       <c r="D171">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E171">
         <v>6</v>
@@ -3155,7 +3155,7 @@
         <v>7</v>
       </c>
       <c r="D173">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E173">
         <v>19</v>
@@ -3207,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="E176">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3222,7 +3222,7 @@
         <v>25</v>
       </c>
       <c r="E177">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3265,10 +3265,10 @@
         <v>2020</v>
       </c>
       <c r="C180">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D180">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -3280,10 +3280,10 @@
         <v>2021</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D181">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E181">
         <v>5</v>
@@ -3312,7 +3312,7 @@
         <v>2021</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D183">
         <v>16</v>
@@ -3489,13 +3489,13 @@
         <v>2020</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D194">
         <v>21</v>
       </c>
       <c r="E194">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3504,13 +3504,13 @@
         <v>2021</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D195">
         <v>47</v>
       </c>
       <c r="E195">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3521,7 +3521,7 @@
         <v>2020</v>
       </c>
       <c r="C196">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D196">
         <v>14</v>
@@ -3536,7 +3536,7 @@
         <v>2021</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D197">
         <v>14</v>
@@ -3748,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="D210">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E210">
         <v>4</v>
@@ -3809,7 +3809,7 @@
         <v>2020</v>
       </c>
       <c r="C214">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D214">
         <v>7</v>
@@ -3824,7 +3824,7 @@
         <v>2021</v>
       </c>
       <c r="C215">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D215">
         <v>5</v>
@@ -3955,7 +3955,7 @@
         <v>3</v>
       </c>
       <c r="D223">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E223">
         <v>6</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E228">
         <v>4</v>
@@ -4051,7 +4051,7 @@
         <v>3</v>
       </c>
       <c r="D229">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E229">
         <v>8</v>
@@ -4161,7 +4161,7 @@
         <v>2020</v>
       </c>
       <c r="C236">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D236">
         <v>3</v>
@@ -4176,7 +4176,7 @@
         <v>2021</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D237">
         <v>2</v>
@@ -4295,7 +4295,7 @@
         <v>4</v>
       </c>
       <c r="E244">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4310,7 +4310,7 @@
         <v>7</v>
       </c>
       <c r="E245">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4324,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E246">
         <v>6</v>
@@ -4353,13 +4353,13 @@
         <v>2020</v>
       </c>
       <c r="C248">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D248">
         <v>13</v>
       </c>
       <c r="E248">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4368,13 +4368,13 @@
         <v>2021</v>
       </c>
       <c r="C249">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="D249">
         <v>10</v>
       </c>
       <c r="E249">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4385,7 +4385,7 @@
         <v>2020</v>
       </c>
       <c r="C250">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D250">
         <v>22</v>
@@ -4400,7 +4400,7 @@
         <v>2021</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D251">
         <v>17</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E253">
         <v>3</v>
@@ -4580,10 +4580,10 @@
         <v>28</v>
       </c>
       <c r="D262">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E262">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4595,10 +4595,10 @@
         <v>0</v>
       </c>
       <c r="D263">
+        <v>12</v>
+      </c>
+      <c r="E263">
         <v>9</v>
-      </c>
-      <c r="E263">
-        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4705,7 +4705,7 @@
         <v>2020</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D270">
         <v>25</v>
@@ -4720,7 +4720,7 @@
         <v>2021</v>
       </c>
       <c r="C271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D271">
         <v>26</v>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="D280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="D281">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>15</v>
       </c>
       <c r="E290">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5092,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="D294">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -5107,7 +5107,7 @@
         <v>2</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E295">
         <v>3</v>
@@ -5121,13 +5121,13 @@
         <v>2020</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D296">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E296">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5136,13 +5136,13 @@
         <v>2021</v>
       </c>
       <c r="C297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D297">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E297">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5156,7 +5156,7 @@
         <v>5</v>
       </c>
       <c r="D298">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>6</v>
       </c>
       <c r="D299">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E299">
         <v>3</v>
@@ -5191,7 +5191,7 @@
         <v>23</v>
       </c>
       <c r="E300">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5206,7 +5206,7 @@
         <v>20</v>
       </c>
       <c r="E301">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5287,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="E306">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5302,7 +5302,7 @@
         <v>22</v>
       </c>
       <c r="E307">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5313,7 +5313,7 @@
         <v>2020</v>
       </c>
       <c r="C308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D308">
         <v>25</v>
@@ -5328,7 +5328,7 @@
         <v>2021</v>
       </c>
       <c r="C309">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D309">
         <v>26</v>
@@ -5383,7 +5383,7 @@
         <v>7</v>
       </c>
       <c r="E312">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5398,7 +5398,7 @@
         <v>11</v>
       </c>
       <c r="E313">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5476,10 +5476,10 @@
         <v>0</v>
       </c>
       <c r="D318">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E318">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5505,7 +5505,7 @@
         <v>2020</v>
       </c>
       <c r="C320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D320">
         <v>3</v>
@@ -5520,7 +5520,7 @@
         <v>2021</v>
       </c>
       <c r="C321">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D321">
         <v>10</v>
@@ -5601,10 +5601,10 @@
         <v>2020</v>
       </c>
       <c r="C326">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D326">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E326">
         <v>3</v>
@@ -5616,13 +5616,13 @@
         <v>2021</v>
       </c>
       <c r="C327">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D327">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E327">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5750,7 +5750,7 @@
         <v>8</v>
       </c>
       <c r="E335">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -5811,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="D339">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E342">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -5872,13 +5872,13 @@
         <v>2021</v>
       </c>
       <c r="C343">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D343">
         <v>11</v>
       </c>
       <c r="E343">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -5907,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="D345">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -5927,7 +5927,7 @@
         <v>37</v>
       </c>
       <c r="E346">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -5942,7 +5942,7 @@
         <v>38</v>
       </c>
       <c r="E347">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -5988,7 +5988,7 @@
         <v>3</v>
       </c>
       <c r="D350">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E350">
         <v>7</v>
@@ -6000,10 +6000,10 @@
         <v>2021</v>
       </c>
       <c r="C351">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D351">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E351">
         <v>2</v>
@@ -6049,7 +6049,7 @@
         <v>2020</v>
       </c>
       <c r="C354">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D354">
         <v>15</v>
@@ -6064,13 +6064,13 @@
         <v>2021</v>
       </c>
       <c r="C355">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D355">
         <v>9</v>
       </c>
       <c r="E355">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="D358">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E358">
         <v>9</v>
@@ -6241,13 +6241,13 @@
         <v>2020</v>
       </c>
       <c r="C366">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D366">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E366">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6273,7 +6273,7 @@
         <v>2020</v>
       </c>
       <c r="C368">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D368">
         <v>18</v>
@@ -6288,7 +6288,7 @@
         <v>2021</v>
       </c>
       <c r="C369">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D369">
         <v>18</v>
@@ -6343,7 +6343,7 @@
         <v>3</v>
       </c>
       <c r="E372">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6358,7 +6358,7 @@
         <v>8</v>
       </c>
       <c r="E373">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6372,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="D374">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E374">
         <v>4</v>
@@ -6433,7 +6433,7 @@
         <v>2020</v>
       </c>
       <c r="C378">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D378">
         <v>3</v>
@@ -6448,7 +6448,7 @@
         <v>2021</v>
       </c>
       <c r="C379">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D379">
         <v>5</v>
@@ -6497,10 +6497,10 @@
         <v>2020</v>
       </c>
       <c r="C382">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D382">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E382">
         <v>6</v>
@@ -6512,7 +6512,7 @@
         <v>2021</v>
       </c>
       <c r="C383">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D383">
         <v>32</v>
@@ -6614,7 +6614,7 @@
         <v>2</v>
       </c>
       <c r="E389">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -6625,10 +6625,10 @@
         <v>2020</v>
       </c>
       <c r="C390">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D390">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E390">
         <v>4</v>
@@ -6640,7 +6640,7 @@
         <v>2021</v>
       </c>
       <c r="C391">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D391">
         <v>22</v>
@@ -6663,7 +6663,7 @@
         <v>30</v>
       </c>
       <c r="E392">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -6727,7 +6727,7 @@
         <v>46</v>
       </c>
       <c r="E396">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -6739,10 +6739,10 @@
         <v>2</v>
       </c>
       <c r="D397">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E397">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -6753,7 +6753,7 @@
         <v>2020</v>
       </c>
       <c r="C398">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D398">
         <v>4</v>
@@ -6768,7 +6768,7 @@
         <v>2021</v>
       </c>
       <c r="C399">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D399">
         <v>9</v>
@@ -6820,10 +6820,10 @@
         <v>0</v>
       </c>
       <c r="D402">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E402">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -6835,10 +6835,10 @@
         <v>0</v>
       </c>
       <c r="D403">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E403">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="D404">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E404">
         <v>8</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="D405">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E405">
         <v>15</v>
@@ -7015,7 +7015,7 @@
         <v>22</v>
       </c>
       <c r="E414">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7030,7 +7030,7 @@
         <v>27</v>
       </c>
       <c r="E415">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="D420">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E420">
         <v>2</v>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="D421">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E421">
         <v>1</v>
@@ -7222,7 +7222,7 @@
         <v>3</v>
       </c>
       <c r="E427">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="D432">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E432">
         <v>5</v>
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="D433">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E433">
         <v>4</v>
@@ -7367,7 +7367,7 @@
         <v>9</v>
       </c>
       <c r="E436">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7443,7 +7443,7 @@
         <v>3</v>
       </c>
       <c r="D441">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E441">
         <v>2</v>
@@ -7559,7 +7559,7 @@
         <v>9</v>
       </c>
       <c r="E448">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7649,10 +7649,10 @@
         <v>2020</v>
       </c>
       <c r="C454">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D454">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E454">
         <v>4</v>
@@ -7664,10 +7664,10 @@
         <v>2021</v>
       </c>
       <c r="C455">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D455">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E455">
         <v>7</v>
@@ -7684,7 +7684,7 @@
         <v>2</v>
       </c>
       <c r="D456">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E456">
         <v>2</v>
@@ -7699,7 +7699,7 @@
         <v>2</v>
       </c>
       <c r="D457">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E457">
         <v>3</v>
@@ -7719,7 +7719,7 @@
         <v>16</v>
       </c>
       <c r="E458">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -7734,7 +7734,7 @@
         <v>24</v>
       </c>
       <c r="E459">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="E466">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="E467">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -7879,7 +7879,7 @@
         <v>10</v>
       </c>
       <c r="E468">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -7894,7 +7894,7 @@
         <v>10</v>
       </c>
       <c r="E469">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -7943,7 +7943,7 @@
         <v>39</v>
       </c>
       <c r="E472">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -7958,7 +7958,7 @@
         <v>24</v>
       </c>
       <c r="E473">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8033,10 +8033,10 @@
         <v>2020</v>
       </c>
       <c r="C478">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D478">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E478">
         <v>3</v>
@@ -8048,13 +8048,13 @@
         <v>2021</v>
       </c>
       <c r="C479">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D479">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E479">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8129,13 +8129,13 @@
         <v>2020</v>
       </c>
       <c r="C484">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D484">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8144,13 +8144,13 @@
         <v>2021</v>
       </c>
       <c r="C485">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D485">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E485">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8167,7 +8167,7 @@
         <v>9</v>
       </c>
       <c r="E486">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8278,7 +8278,7 @@
         <v>35</v>
       </c>
       <c r="E493">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8295,7 +8295,7 @@
         <v>24</v>
       </c>
       <c r="E494">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8307,10 +8307,10 @@
         <v>16</v>
       </c>
       <c r="D495">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E495">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8417,13 +8417,13 @@
         <v>2020</v>
       </c>
       <c r="C502">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D502">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E502">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="E508">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -8534,7 +8534,7 @@
         <v>2</v>
       </c>
       <c r="E509">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -8577,10 +8577,10 @@
         <v>2020</v>
       </c>
       <c r="C512">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D512">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E512">
         <v>9</v>
@@ -8592,10 +8592,10 @@
         <v>2021</v>
       </c>
       <c r="C513">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D513">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E513">
         <v>5</v>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="E518">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -8694,7 +8694,7 @@
         <v>2</v>
       </c>
       <c r="E519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -8790,7 +8790,7 @@
         <v>27</v>
       </c>
       <c r="E525">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -8935,7 +8935,7 @@
         <v>2</v>
       </c>
       <c r="E534">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -8950,7 +8950,7 @@
         <v>2</v>
       </c>
       <c r="E535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -8967,7 +8967,7 @@
         <v>47</v>
       </c>
       <c r="E536">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="E537">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -8999,7 +8999,7 @@
         <v>4</v>
       </c>
       <c r="E538">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -9014,7 +9014,7 @@
         <v>3</v>
       </c>
       <c r="E539">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -9043,7 +9043,7 @@
         <v>4</v>
       </c>
       <c r="D541">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E541">
         <v>7</v>
@@ -9057,13 +9057,13 @@
         <v>2020</v>
       </c>
       <c r="C542">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D542">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -9072,13 +9072,13 @@
         <v>2021</v>
       </c>
       <c r="C543">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D543">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E543">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -9188,10 +9188,10 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E550">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -9206,7 +9206,7 @@
         <v>29</v>
       </c>
       <c r="E551">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -9217,7 +9217,7 @@
         <v>2020</v>
       </c>
       <c r="C552">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D552">
         <v>10</v>
@@ -9232,7 +9232,7 @@
         <v>2021</v>
       </c>
       <c r="C553">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D553">
         <v>11</v>
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="D557">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E557">
         <v>8</v>
@@ -9363,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E561">
         <v>59</v>
@@ -9398,7 +9398,7 @@
         <v>14</v>
       </c>
       <c r="E563">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -9555,10 +9555,10 @@
         <v>2</v>
       </c>
       <c r="D573">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E573">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -9587,7 +9587,7 @@
         <v>1</v>
       </c>
       <c r="D575">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E575">
         <v>3</v>
@@ -9607,7 +9607,7 @@
         <v>9</v>
       </c>
       <c r="E576">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -9668,7 +9668,7 @@
         <v>15</v>
       </c>
       <c r="D580">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E580">
         <v>9</v>
@@ -9683,10 +9683,10 @@
         <v>22</v>
       </c>
       <c r="D581">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E581">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -9729,13 +9729,13 @@
         <v>2020</v>
       </c>
       <c r="C584">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D584">
         <v>5</v>
       </c>
       <c r="E584">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -9744,13 +9744,13 @@
         <v>2021</v>
       </c>
       <c r="C585">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D585">
         <v>14</v>
       </c>
       <c r="E585">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -9767,7 +9767,7 @@
         <v>17</v>
       </c>
       <c r="E586">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -9782,7 +9782,7 @@
         <v>25</v>
       </c>
       <c r="E587">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -9799,7 +9799,7 @@
         <v>18</v>
       </c>
       <c r="E588">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -9814,7 +9814,7 @@
         <v>15</v>
       </c>
       <c r="E589">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -9863,7 +9863,7 @@
         <v>27</v>
       </c>
       <c r="E592">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="D593">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E593">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -10052,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="D604">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E604">
         <v>8</v>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="D605">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E605">
         <v>7</v>
@@ -10145,7 +10145,7 @@
         <v>2020</v>
       </c>
       <c r="C610">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D610">
         <v>9</v>
@@ -10160,13 +10160,13 @@
         <v>2021</v>
       </c>
       <c r="C611">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D611">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E611">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -10180,7 +10180,7 @@
         <v>2</v>
       </c>
       <c r="D612">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E612">
         <v>7</v>
@@ -10195,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="D613">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E613">
         <v>12</v>
@@ -10340,7 +10340,7 @@
         <v>4</v>
       </c>
       <c r="D622">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E622">
         <v>4</v>
@@ -10387,7 +10387,7 @@
         <v>1</v>
       </c>
       <c r="D625">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E625">
         <v>9</v>
@@ -10404,7 +10404,7 @@
         <v>13</v>
       </c>
       <c r="D626">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E626">
         <v>2</v>
@@ -10416,10 +10416,10 @@
         <v>2021</v>
       </c>
       <c r="C627">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D627">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E627">
         <v>25</v>
@@ -10535,7 +10535,7 @@
         <v>27</v>
       </c>
       <c r="E634">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="D648">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E648">
         <v>2</v>
@@ -10771,7 +10771,7 @@
         <v>8</v>
       </c>
       <c r="D649">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E649">
         <v>3</v>
@@ -10945,10 +10945,10 @@
         <v>2020</v>
       </c>
       <c r="C660">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D660">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E660">
         <v>4</v>
@@ -10963,7 +10963,7 @@
         <v>5</v>
       </c>
       <c r="D661">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E661">
         <v>3</v>
@@ -10977,10 +10977,10 @@
         <v>2020</v>
       </c>
       <c r="C662">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D662">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E662">
         <v>2</v>
@@ -10992,10 +10992,10 @@
         <v>2021</v>
       </c>
       <c r="C663">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D663">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E663">
         <v>1</v>
@@ -11030,7 +11030,7 @@
         <v>0</v>
       </c>
       <c r="E665">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="D676">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E676">
         <v>14</v>
@@ -11219,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="D677">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E677">
         <v>15</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="D683">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E683">
         <v>4</v>
@@ -11364,7 +11364,7 @@
         <v>3</v>
       </c>
       <c r="D686">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E686">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>4</v>
       </c>
       <c r="D687">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E687">
         <v>2</v>
@@ -11393,10 +11393,10 @@
         <v>2020</v>
       </c>
       <c r="C688">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D688">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E688">
         <v>23</v>
@@ -11408,13 +11408,13 @@
         <v>2021</v>
       </c>
       <c r="C689">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D689">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E689">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -11844,7 +11844,7 @@
         <v>3</v>
       </c>
       <c r="D716">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E716">
         <v>0</v>
@@ -11859,10 +11859,10 @@
         <v>4</v>
       </c>
       <c r="D717">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E717">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -11873,10 +11873,10 @@
         <v>2020</v>
       </c>
       <c r="C718">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D718">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E718">
         <v>0</v>
@@ -11888,10 +11888,10 @@
         <v>2021</v>
       </c>
       <c r="C719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D719">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E719">
         <v>0</v>
@@ -11908,10 +11908,10 @@
         <v>0</v>
       </c>
       <c r="D720">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E720">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="721" spans="1:5">
@@ -11923,10 +11923,10 @@
         <v>1</v>
       </c>
       <c r="D721">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E721">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="722" spans="1:5">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="D730">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E730">
         <v>5</v>
@@ -12083,7 +12083,7 @@
         <v>2</v>
       </c>
       <c r="D731">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E731">
         <v>9</v>
@@ -12129,7 +12129,7 @@
         <v>2020</v>
       </c>
       <c r="C734">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D734">
         <v>9</v>
@@ -12144,7 +12144,7 @@
         <v>2021</v>
       </c>
       <c r="C735">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D735">
         <v>7</v>
@@ -12164,10 +12164,10 @@
         <v>0</v>
       </c>
       <c r="D736">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E736">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:5">
@@ -12176,13 +12176,13 @@
         <v>2021</v>
       </c>
       <c r="C737">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D737">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:5">
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="E740">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="741" spans="1:5">
@@ -12246,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="E741">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -12420,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="D752">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E752">
         <v>5</v>
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="D753">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E753">
         <v>16</v>
@@ -12467,7 +12467,7 @@
         <v>3</v>
       </c>
       <c r="D755">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E755">
         <v>8</v>
@@ -12499,7 +12499,7 @@
         <v>10</v>
       </c>
       <c r="D757">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E757">
         <v>1</v>
@@ -12516,7 +12516,7 @@
         <v>6</v>
       </c>
       <c r="D758">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E758">
         <v>11</v>
@@ -12531,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="D759">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E759">
         <v>14</v>
@@ -12708,7 +12708,7 @@
         <v>0</v>
       </c>
       <c r="D770">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E770">
         <v>5</v>
@@ -12743,7 +12743,7 @@
         <v>15</v>
       </c>
       <c r="E772">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -12758,7 +12758,7 @@
         <v>22</v>
       </c>
       <c r="E773">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:5">
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="D775">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E775">
         <v>3</v>
@@ -12848,7 +12848,7 @@
         <v>2021</v>
       </c>
       <c r="C779">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D779">
         <v>16</v>
@@ -12871,7 +12871,7 @@
         <v>19</v>
       </c>
       <c r="E780">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="781" spans="1:5">
@@ -12880,10 +12880,10 @@
         <v>2021</v>
       </c>
       <c r="C781">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D781">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E781">
         <v>9</v>
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="E783">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="784" spans="1:5">
@@ -13095,7 +13095,7 @@
         <v>20</v>
       </c>
       <c r="E794">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="795" spans="1:5">
@@ -13110,7 +13110,7 @@
         <v>15</v>
       </c>
       <c r="E795">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="796" spans="1:5">
@@ -13153,7 +13153,7 @@
         <v>2020</v>
       </c>
       <c r="C798">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D798">
         <v>4</v>
@@ -13168,7 +13168,7 @@
         <v>2021</v>
       </c>
       <c r="C799">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D799">
         <v>11</v>
@@ -13200,7 +13200,7 @@
         <v>2021</v>
       </c>
       <c r="C801">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D801">
         <v>28</v>
@@ -13235,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="D803">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E803">
         <v>2</v>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="E808">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="809" spans="1:5">
@@ -13334,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="E809">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:5">
@@ -13360,10 +13360,10 @@
         <v>2021</v>
       </c>
       <c r="C811">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D811">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E811">
         <v>2</v>
@@ -13543,7 +13543,7 @@
         <v>20</v>
       </c>
       <c r="E822">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="823" spans="1:5">
@@ -13558,7 +13558,7 @@
         <v>29</v>
       </c>
       <c r="E823">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="824" spans="1:5">
@@ -13569,10 +13569,10 @@
         <v>2020</v>
       </c>
       <c r="C824">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D824">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E824">
         <v>4</v>
@@ -13584,10 +13584,10 @@
         <v>2021</v>
       </c>
       <c r="C825">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D825">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E825">
         <v>3</v>
@@ -13639,7 +13639,7 @@
         <v>14</v>
       </c>
       <c r="E828">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:5">
@@ -13654,7 +13654,7 @@
         <v>9</v>
       </c>
       <c r="E829">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="830" spans="1:5">
@@ -13703,7 +13703,7 @@
         <v>16</v>
       </c>
       <c r="E832">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:5">
@@ -13718,7 +13718,7 @@
         <v>34</v>
       </c>
       <c r="E833">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="834" spans="1:5">
@@ -13750,7 +13750,7 @@
         <v>23</v>
       </c>
       <c r="E835">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="836" spans="1:5">
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="E841">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -13936,10 +13936,10 @@
         <v>2021</v>
       </c>
       <c r="C847">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D847">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E847">
         <v>0</v>
@@ -14023,7 +14023,7 @@
         <v>18</v>
       </c>
       <c r="E852">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="853" spans="1:5">
@@ -14038,7 +14038,7 @@
         <v>14</v>
       </c>
       <c r="E853">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="854" spans="1:5">
@@ -14055,7 +14055,7 @@
         <v>0</v>
       </c>
       <c r="E854">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:5">
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="E855">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:5">
@@ -14087,7 +14087,7 @@
         <v>13</v>
       </c>
       <c r="E856">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="857" spans="1:5">
@@ -14102,7 +14102,7 @@
         <v>12</v>
       </c>
       <c r="E857">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="858" spans="1:5">
@@ -14387,7 +14387,7 @@
         <v>31</v>
       </c>
       <c r="D875">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E875">
         <v>15</v>
@@ -14407,7 +14407,7 @@
         <v>21</v>
       </c>
       <c r="E876">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:5">
@@ -14422,7 +14422,7 @@
         <v>22</v>
       </c>
       <c r="E877">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="878" spans="1:5">
@@ -14657,13 +14657,13 @@
         <v>2020</v>
       </c>
       <c r="C892">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D892">
         <v>18</v>
       </c>
       <c r="E892">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:5">
@@ -14672,13 +14672,13 @@
         <v>2021</v>
       </c>
       <c r="C893">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D893">
         <v>15</v>
       </c>
       <c r="E893">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="894" spans="1:5">
@@ -14704,7 +14704,7 @@
         <v>2021</v>
       </c>
       <c r="C895">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D895">
         <v>21</v>
@@ -14838,7 +14838,7 @@
         <v>8</v>
       </c>
       <c r="E903">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="904" spans="1:5">
@@ -14849,10 +14849,10 @@
         <v>2020</v>
       </c>
       <c r="C904">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D904">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E904">
         <v>7</v>
@@ -14864,10 +14864,10 @@
         <v>2021</v>
       </c>
       <c r="C905">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D905">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E905">
         <v>4</v>
@@ -14934,7 +14934,7 @@
         <v>18</v>
       </c>
       <c r="E909">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="910" spans="1:5">
@@ -15126,7 +15126,7 @@
         <v>14</v>
       </c>
       <c r="E921">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="922" spans="1:5">
@@ -15140,10 +15140,10 @@
         <v>8</v>
       </c>
       <c r="D922">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E922">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="923" spans="1:5">
@@ -15155,10 +15155,10 @@
         <v>30</v>
       </c>
       <c r="D923">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E923">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="924" spans="1:5">
@@ -15318,7 +15318,7 @@
         <v>14</v>
       </c>
       <c r="E933">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="934" spans="1:5">
@@ -15335,7 +15335,7 @@
         <v>8</v>
       </c>
       <c r="E934">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="935" spans="1:5">
@@ -15350,7 +15350,7 @@
         <v>10</v>
       </c>
       <c r="E935">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:5">
@@ -15364,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="D936">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E936">
         <v>2</v>
@@ -15411,10 +15411,10 @@
         <v>27</v>
       </c>
       <c r="D939">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E939">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="940" spans="1:5">
@@ -15428,10 +15428,10 @@
         <v>0</v>
       </c>
       <c r="D940">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E940">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="941" spans="1:5">
@@ -15443,10 +15443,10 @@
         <v>4</v>
       </c>
       <c r="D941">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E941">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="942" spans="1:5">
@@ -15553,7 +15553,7 @@
         <v>2020</v>
       </c>
       <c r="C948">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D948">
         <v>12</v>
@@ -15568,7 +15568,7 @@
         <v>2021</v>
       </c>
       <c r="C949">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D949">
         <v>0</v>
@@ -15684,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="D956">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E956">
         <v>4</v>
@@ -15699,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="D957">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E957">
         <v>4</v>
@@ -15763,7 +15763,7 @@
         <v>2</v>
       </c>
       <c r="D961">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E961">
         <v>11</v>
@@ -15891,10 +15891,10 @@
         <v>0</v>
       </c>
       <c r="D969">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E969">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="970" spans="1:5">
@@ -15972,10 +15972,10 @@
         <v>4</v>
       </c>
       <c r="D974">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E974">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="975" spans="1:5">
@@ -15990,7 +15990,7 @@
         <v>4</v>
       </c>
       <c r="E975">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="976" spans="1:5">
@@ -16033,10 +16033,10 @@
         <v>2020</v>
       </c>
       <c r="C978">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D978">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E978">
         <v>7</v>
@@ -16065,7 +16065,7 @@
         <v>2020</v>
       </c>
       <c r="C980">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D980">
         <v>15</v>
@@ -16080,7 +16080,7 @@
         <v>2021</v>
       </c>
       <c r="C981">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D981">
         <v>28</v>
@@ -16240,10 +16240,10 @@
         <v>2021</v>
       </c>
       <c r="C991">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D991">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E991">
         <v>6</v>
@@ -16435,7 +16435,7 @@
         <v>0</v>
       </c>
       <c r="D1003">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1003">
         <v>12</v>
@@ -16487,7 +16487,7 @@
         <v>5</v>
       </c>
       <c r="E1006">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:5">
@@ -16502,7 +16502,7 @@
         <v>9</v>
       </c>
       <c r="E1007">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008" spans="1:5">
@@ -16662,7 +16662,7 @@
         <v>5</v>
       </c>
       <c r="E1017">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1018" spans="1:5">
@@ -16688,13 +16688,13 @@
         <v>2021</v>
       </c>
       <c r="C1019">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1019">
         <v>11</v>
       </c>
       <c r="E1019">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1020" spans="1:5">
@@ -16708,7 +16708,7 @@
         <v>1</v>
       </c>
       <c r="D1020">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E1020">
         <v>11</v>
@@ -16723,7 +16723,7 @@
         <v>0</v>
       </c>
       <c r="D1021">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E1021">
         <v>3</v>
@@ -16801,7 +16801,7 @@
         <v>2020</v>
       </c>
       <c r="C1026">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1026">
         <v>8</v>
@@ -16816,7 +16816,7 @@
         <v>2021</v>
       </c>
       <c r="C1027">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1027">
         <v>9</v>
@@ -16851,7 +16851,7 @@
         <v>37</v>
       </c>
       <c r="D1029">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E1029">
         <v>25</v>
@@ -16903,7 +16903,7 @@
         <v>9</v>
       </c>
       <c r="E1032">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1033" spans="1:5">
@@ -16918,7 +16918,7 @@
         <v>16</v>
       </c>
       <c r="E1033">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1034" spans="1:5">
@@ -17025,7 +17025,7 @@
         <v>2020</v>
       </c>
       <c r="C1040">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1040">
         <v>5</v>
@@ -17040,7 +17040,7 @@
         <v>2021</v>
       </c>
       <c r="C1041">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1041">
         <v>15</v>
@@ -17360,10 +17360,10 @@
         <v>2021</v>
       </c>
       <c r="C1061">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1061">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1061">
         <v>41</v>
@@ -17409,7 +17409,7 @@
         <v>2020</v>
       </c>
       <c r="C1064">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1064">
         <v>10</v>
@@ -17441,7 +17441,7 @@
         <v>2020</v>
       </c>
       <c r="C1066">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D1066">
         <v>29</v>
@@ -17526,7 +17526,7 @@
         <v>45</v>
       </c>
       <c r="E1071">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1072" spans="1:5">
@@ -17558,7 +17558,7 @@
         <v>22</v>
       </c>
       <c r="E1073">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1074" spans="1:5">
@@ -17590,7 +17590,7 @@
         <v>34</v>
       </c>
       <c r="E1075">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1076" spans="1:5">
@@ -17974,7 +17974,7 @@
         <v>8</v>
       </c>
       <c r="E1099">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
@@ -18000,7 +18000,7 @@
         <v>2021</v>
       </c>
       <c r="C1101">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1101">
         <v>31</v>
@@ -18023,7 +18023,7 @@
         <v>22</v>
       </c>
       <c r="E1102">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1103" spans="1:5">
@@ -18038,7 +18038,7 @@
         <v>32</v>
       </c>
       <c r="E1103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1104" spans="1:5">
@@ -18081,10 +18081,10 @@
         <v>2020</v>
       </c>
       <c r="C1106">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1106">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1106">
         <v>3</v>
@@ -18096,10 +18096,10 @@
         <v>2021</v>
       </c>
       <c r="C1107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1107">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1107">
         <v>5</v>
@@ -18247,7 +18247,7 @@
         <v>20</v>
       </c>
       <c r="E1116">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1117" spans="1:5">
@@ -18262,7 +18262,7 @@
         <v>20</v>
       </c>
       <c r="E1117">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1118" spans="1:5">
@@ -18320,7 +18320,7 @@
         <v>2021</v>
       </c>
       <c r="C1121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1121">
         <v>46</v>
@@ -18343,7 +18343,7 @@
         <v>0</v>
       </c>
       <c r="E1122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:5">
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="E1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:5">
@@ -18433,7 +18433,7 @@
         <v>2020</v>
       </c>
       <c r="C1128">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D1128">
         <v>25</v>
@@ -18448,7 +18448,7 @@
         <v>2021</v>
       </c>
       <c r="C1129">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D1129">
         <v>22</v>
@@ -18471,7 +18471,7 @@
         <v>29</v>
       </c>
       <c r="E1130">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1131" spans="1:5">
@@ -18486,7 +18486,7 @@
         <v>32</v>
       </c>
       <c r="E1131">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1132" spans="1:5">
@@ -18631,7 +18631,7 @@
         <v>18</v>
       </c>
       <c r="E1140">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1141" spans="1:5">
@@ -18646,7 +18646,7 @@
         <v>30</v>
       </c>
       <c r="E1141">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1142" spans="1:5">
@@ -18663,7 +18663,7 @@
         <v>6</v>
       </c>
       <c r="E1142">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1143" spans="1:5">
@@ -18678,7 +18678,7 @@
         <v>26</v>
       </c>
       <c r="E1143">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1144" spans="1:5">
@@ -18742,7 +18742,7 @@
         <v>15</v>
       </c>
       <c r="E1147">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1148" spans="1:5">
@@ -18803,10 +18803,10 @@
         <v>19</v>
       </c>
       <c r="D1151">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1151">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1152" spans="1:5">
@@ -18855,7 +18855,7 @@
         <v>8</v>
       </c>
       <c r="E1154">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1155" spans="1:5">
@@ -18870,7 +18870,7 @@
         <v>18</v>
       </c>
       <c r="E1155">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1156" spans="1:5">
@@ -18983,7 +18983,7 @@
         <v>22</v>
       </c>
       <c r="E1162">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1163" spans="1:5">
@@ -18998,7 +18998,7 @@
         <v>20</v>
       </c>
       <c r="E1163">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1164" spans="1:5">
@@ -19009,7 +19009,7 @@
         <v>2020</v>
       </c>
       <c r="C1164">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1164">
         <v>50</v>
@@ -19024,7 +19024,7 @@
         <v>2021</v>
       </c>
       <c r="C1165">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1165">
         <v>13</v>
@@ -19062,7 +19062,7 @@
         <v>77</v>
       </c>
       <c r="E1167">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1168" spans="1:5">
@@ -19105,7 +19105,7 @@
         <v>2020</v>
       </c>
       <c r="C1170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1170">
         <v>19</v>
@@ -19120,7 +19120,7 @@
         <v>2021</v>
       </c>
       <c r="C1171">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1171">
         <v>10</v>
@@ -19137,10 +19137,10 @@
         <v>2020</v>
       </c>
       <c r="C1172">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1172">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1172">
         <v>10</v>
@@ -19152,7 +19152,7 @@
         <v>2021</v>
       </c>
       <c r="C1173">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1173">
         <v>4</v>
@@ -19204,7 +19204,7 @@
         <v>21</v>
       </c>
       <c r="D1176">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E1176">
         <v>7</v>
@@ -19216,10 +19216,10 @@
         <v>2021</v>
       </c>
       <c r="C1177">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1177">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E1177">
         <v>4</v>
@@ -19332,7 +19332,7 @@
         <v>25</v>
       </c>
       <c r="D1184">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1184">
         <v>2</v>
@@ -19492,7 +19492,7 @@
         <v>0</v>
       </c>
       <c r="D1194">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E1194">
         <v>13</v>
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
       <c r="D1195">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E1195">
         <v>6</v>
@@ -19527,7 +19527,7 @@
         <v>31</v>
       </c>
       <c r="E1196">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1197" spans="1:5">
@@ -19777,7 +19777,7 @@
         <v>2020</v>
       </c>
       <c r="C1212">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1212">
         <v>11</v>
@@ -19792,7 +19792,7 @@
         <v>2021</v>
       </c>
       <c r="C1213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1213">
         <v>34</v>
@@ -19856,7 +19856,7 @@
         <v>2021</v>
       </c>
       <c r="C1217">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1217">
         <v>5</v>
@@ -19873,7 +19873,7 @@
         <v>2020</v>
       </c>
       <c r="C1218">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1218">
         <v>15</v>
@@ -19888,7 +19888,7 @@
         <v>2021</v>
       </c>
       <c r="C1219">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1219">
         <v>14</v>
@@ -19987,7 +19987,7 @@
         <v>5</v>
       </c>
       <c r="D1225">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E1225">
         <v>10</v>
@@ -20007,7 +20007,7 @@
         <v>21</v>
       </c>
       <c r="E1226">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1227" spans="1:5">
@@ -20022,7 +20022,7 @@
         <v>20</v>
       </c>
       <c r="E1227">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1228" spans="1:5">
@@ -20033,13 +20033,13 @@
         <v>2020</v>
       </c>
       <c r="C1228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1228">
         <v>19</v>
       </c>
       <c r="E1228">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1229" spans="1:5">
@@ -20048,13 +20048,13 @@
         <v>2021</v>
       </c>
       <c r="C1229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1229">
         <v>22</v>
       </c>
       <c r="E1229">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1230" spans="1:5">
@@ -20068,7 +20068,7 @@
         <v>0</v>
       </c>
       <c r="D1230">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1230">
         <v>8</v>
@@ -20083,7 +20083,7 @@
         <v>0</v>
       </c>
       <c r="D1231">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1231">
         <v>1</v>
@@ -20324,10 +20324,10 @@
         <v>8</v>
       </c>
       <c r="D1246">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1246">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1247" spans="1:5">
@@ -20339,10 +20339,10 @@
         <v>4</v>
       </c>
       <c r="D1247">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1247">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1248" spans="1:5">
@@ -20368,7 +20368,7 @@
         <v>2021</v>
       </c>
       <c r="C1249">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1249">
         <v>13</v>
@@ -20499,7 +20499,7 @@
         <v>8</v>
       </c>
       <c r="D1257">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E1257">
         <v>6</v>
@@ -20513,7 +20513,7 @@
         <v>2020</v>
       </c>
       <c r="C1258">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1258">
         <v>11</v>
@@ -20528,7 +20528,7 @@
         <v>2021</v>
       </c>
       <c r="C1259">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D1259">
         <v>15</v>
@@ -20560,13 +20560,13 @@
         <v>2021</v>
       </c>
       <c r="C1261">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1261">
         <v>16</v>
       </c>
       <c r="E1261">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1262" spans="1:5">
@@ -20775,7 +20775,7 @@
         <v>27</v>
       </c>
       <c r="E1274">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1275" spans="1:5">
@@ -20790,7 +20790,7 @@
         <v>22</v>
       </c>
       <c r="E1275">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1276" spans="1:5">
@@ -20839,7 +20839,7 @@
         <v>20</v>
       </c>
       <c r="E1278">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1279" spans="1:5">
@@ -20854,7 +20854,7 @@
         <v>22</v>
       </c>
       <c r="E1279">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1280" spans="1:5">
@@ -20999,7 +20999,7 @@
         <v>34</v>
       </c>
       <c r="E1288">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1289" spans="1:5">
@@ -21014,7 +21014,7 @@
         <v>42</v>
       </c>
       <c r="E1289">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1290" spans="1:5">
@@ -21089,10 +21089,10 @@
         <v>2020</v>
       </c>
       <c r="C1294">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1294">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1294">
         <v>34</v>
@@ -21104,13 +21104,13 @@
         <v>2021</v>
       </c>
       <c r="C1295">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1295">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1295">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1296" spans="1:5">
@@ -21142,7 +21142,7 @@
         <v>8</v>
       </c>
       <c r="E1297">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1298" spans="1:5">
@@ -21302,7 +21302,7 @@
         <v>12</v>
       </c>
       <c r="E1307">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1308" spans="1:5">
@@ -21974,7 +21974,7 @@
         <v>0</v>
       </c>
       <c r="E1349">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1350" spans="1:5">
@@ -22067,7 +22067,7 @@
         <v>7</v>
       </c>
       <c r="D1355">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1355">
         <v>20</v>
@@ -22087,7 +22087,7 @@
         <v>24</v>
       </c>
       <c r="E1356">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1357" spans="1:5">
@@ -22160,7 +22160,7 @@
         <v>2021</v>
       </c>
       <c r="C1361">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D1361">
         <v>6</v>
@@ -22256,7 +22256,7 @@
         <v>2021</v>
       </c>
       <c r="C1367">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1367">
         <v>9</v>
@@ -22308,7 +22308,7 @@
         <v>2</v>
       </c>
       <c r="D1370">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E1370">
         <v>5</v>
@@ -22323,7 +22323,7 @@
         <v>4</v>
       </c>
       <c r="D1371">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E1371">
         <v>6</v>
@@ -22343,7 +22343,7 @@
         <v>20</v>
       </c>
       <c r="E1372">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1373" spans="1:5">
@@ -22358,7 +22358,7 @@
         <v>7</v>
       </c>
       <c r="E1373">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1374" spans="1:5">
@@ -22471,7 +22471,7 @@
         <v>16</v>
       </c>
       <c r="E1380">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1381" spans="1:5">
@@ -22486,7 +22486,7 @@
         <v>11</v>
       </c>
       <c r="E1381">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1382" spans="1:5">
@@ -22535,7 +22535,7 @@
         <v>16</v>
       </c>
       <c r="E1384">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1385" spans="1:5">
@@ -22550,7 +22550,7 @@
         <v>19</v>
       </c>
       <c r="E1385">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -22710,7 +22710,7 @@
         <v>21</v>
       </c>
       <c r="E1395">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -22753,7 +22753,7 @@
         <v>2020</v>
       </c>
       <c r="C1398">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1398">
         <v>26</v>
@@ -22768,7 +22768,7 @@
         <v>2021</v>
       </c>
       <c r="C1399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1399">
         <v>23</v>
@@ -22791,7 +22791,7 @@
         <v>19</v>
       </c>
       <c r="E1400">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1401" spans="1:5">
@@ -22817,13 +22817,13 @@
         <v>2020</v>
       </c>
       <c r="C1402">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1402">
         <v>28</v>
       </c>
       <c r="E1402">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1403" spans="1:5">
@@ -22832,13 +22832,13 @@
         <v>2021</v>
       </c>
       <c r="C1403">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1403">
         <v>34</v>
       </c>
       <c r="E1403">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1404" spans="1:5">
@@ -22884,10 +22884,10 @@
         <v>0</v>
       </c>
       <c r="D1406">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E1406">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1407" spans="1:5">
@@ -22899,10 +22899,10 @@
         <v>0</v>
       </c>
       <c r="D1407">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E1407">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -22913,7 +22913,7 @@
         <v>2020</v>
       </c>
       <c r="C1408">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1408">
         <v>14</v>
@@ -22928,7 +22928,7 @@
         <v>2021</v>
       </c>
       <c r="C1409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1409">
         <v>9</v>
@@ -22960,7 +22960,7 @@
         <v>2021</v>
       </c>
       <c r="C1411">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D1411">
         <v>2</v>
@@ -22998,7 +22998,7 @@
         <v>10</v>
       </c>
       <c r="E1413">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1414" spans="1:5">
@@ -23172,7 +23172,7 @@
         <v>0</v>
       </c>
       <c r="D1424">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1424">
         <v>2</v>
@@ -23268,10 +23268,10 @@
         <v>0</v>
       </c>
       <c r="D1430">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E1430">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -23283,10 +23283,10 @@
         <v>0</v>
       </c>
       <c r="D1431">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E1431">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1432" spans="1:5">
@@ -23376,7 +23376,7 @@
         <v>2021</v>
       </c>
       <c r="C1437">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D1437">
         <v>5</v>
@@ -23492,7 +23492,7 @@
         <v>0</v>
       </c>
       <c r="D1444">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1444">
         <v>8</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="D1445">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1445">
         <v>1</v>
@@ -23556,7 +23556,7 @@
         <v>0</v>
       </c>
       <c r="D1448">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1448">
         <v>2</v>
@@ -23571,10 +23571,10 @@
         <v>35</v>
       </c>
       <c r="D1449">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E1449">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1450" spans="1:5">
@@ -23684,7 +23684,7 @@
         <v>0</v>
       </c>
       <c r="D1456">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1456">
         <v>9</v>
@@ -23699,7 +23699,7 @@
         <v>0</v>
       </c>
       <c r="D1457">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1457">
         <v>6</v>
@@ -23716,7 +23716,7 @@
         <v>2</v>
       </c>
       <c r="D1458">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1458">
         <v>10</v>
@@ -23731,7 +23731,7 @@
         <v>17</v>
       </c>
       <c r="D1459">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E1459">
         <v>18</v>
@@ -23748,7 +23748,7 @@
         <v>0</v>
       </c>
       <c r="D1460">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1460">
         <v>1</v>
@@ -23763,7 +23763,7 @@
         <v>12</v>
       </c>
       <c r="D1461">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1461">
         <v>10</v>
@@ -23862,7 +23862,7 @@
         <v>30</v>
       </c>
       <c r="E1467">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -23984,7 +23984,7 @@
         <v>2021</v>
       </c>
       <c r="C1475">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1475">
         <v>23</v>
@@ -24039,7 +24039,7 @@
         <v>4</v>
       </c>
       <c r="E1478">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1479" spans="1:5">
@@ -24048,13 +24048,13 @@
         <v>2021</v>
       </c>
       <c r="C1479">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1479">
         <v>8</v>
       </c>
       <c r="E1479">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1480" spans="1:5">
@@ -24193,7 +24193,7 @@
         <v>2020</v>
       </c>
       <c r="C1488">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D1488">
         <v>12</v>
@@ -24208,7 +24208,7 @@
         <v>2021</v>
       </c>
       <c r="C1489">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D1489">
         <v>14</v>
@@ -24231,7 +24231,7 @@
         <v>16</v>
       </c>
       <c r="E1490">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1491" spans="1:5">
@@ -24246,7 +24246,7 @@
         <v>11</v>
       </c>
       <c r="E1491">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1492" spans="1:5">
@@ -24257,7 +24257,7 @@
         <v>2020</v>
       </c>
       <c r="C1492">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1492">
         <v>24</v>
@@ -24272,7 +24272,7 @@
         <v>2021</v>
       </c>
       <c r="C1493">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1493">
         <v>16</v>
@@ -24295,7 +24295,7 @@
         <v>2</v>
       </c>
       <c r="E1494">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1495" spans="1:5">
@@ -24310,7 +24310,7 @@
         <v>22</v>
       </c>
       <c r="E1495">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1496" spans="1:5">
@@ -24356,7 +24356,7 @@
         <v>1</v>
       </c>
       <c r="D1498">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1498">
         <v>8</v>
@@ -24371,7 +24371,7 @@
         <v>3</v>
       </c>
       <c r="D1499">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1499">
         <v>7</v>
@@ -24385,7 +24385,7 @@
         <v>2020</v>
       </c>
       <c r="C1500">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1500">
         <v>11</v>
@@ -24400,7 +24400,7 @@
         <v>2021</v>
       </c>
       <c r="C1501">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1501">
         <v>11</v>
@@ -24484,7 +24484,7 @@
         <v>5</v>
       </c>
       <c r="D1506">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1506">
         <v>7</v>
@@ -24496,10 +24496,10 @@
         <v>2021</v>
       </c>
       <c r="C1507">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1507">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1507">
         <v>14</v>
@@ -24551,7 +24551,7 @@
         <v>3</v>
       </c>
       <c r="E1510">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -24566,7 +24566,7 @@
         <v>5</v>
       </c>
       <c r="E1511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1512" spans="1:5">
@@ -24577,7 +24577,7 @@
         <v>2020</v>
       </c>
       <c r="C1512">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D1512">
         <v>10</v>
@@ -24592,10 +24592,10 @@
         <v>2021</v>
       </c>
       <c r="C1513">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1513">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1513">
         <v>2</v>
@@ -24711,7 +24711,7 @@
         <v>12</v>
       </c>
       <c r="E1520">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -24726,7 +24726,7 @@
         <v>6</v>
       </c>
       <c r="E1521">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -24737,7 +24737,7 @@
         <v>2020</v>
       </c>
       <c r="C1522">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1522">
         <v>12</v>
@@ -24752,7 +24752,7 @@
         <v>2021</v>
       </c>
       <c r="C1523">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1523">
         <v>18</v>
@@ -24807,7 +24807,7 @@
         <v>26</v>
       </c>
       <c r="E1526">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -24822,7 +24822,7 @@
         <v>11</v>
       </c>
       <c r="E1527">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1528" spans="1:5">
@@ -24839,7 +24839,7 @@
         <v>0</v>
       </c>
       <c r="E1528">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -24854,7 +24854,7 @@
         <v>4</v>
       </c>
       <c r="E1529">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1530" spans="1:5">
@@ -24935,7 +24935,7 @@
         <v>14</v>
       </c>
       <c r="E1534">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -24950,7 +24950,7 @@
         <v>17</v>
       </c>
       <c r="E1535">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1536" spans="1:5">
@@ -24993,10 +24993,10 @@
         <v>2020</v>
       </c>
       <c r="C1538">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D1538">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E1538">
         <v>4</v>
@@ -25008,10 +25008,10 @@
         <v>2021</v>
       </c>
       <c r="C1539">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1539">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1539">
         <v>4</v>
@@ -25063,7 +25063,7 @@
         <v>0</v>
       </c>
       <c r="E1542">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1543" spans="1:5">
@@ -25200,7 +25200,7 @@
         <v>2021</v>
       </c>
       <c r="C1551">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1551">
         <v>22</v>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="D1552">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E1552">
         <v>0</v>
@@ -25235,7 +25235,7 @@
         <v>9</v>
       </c>
       <c r="D1553">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E1553">
         <v>10</v>
@@ -25270,7 +25270,7 @@
         <v>7</v>
       </c>
       <c r="E1555">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1556" spans="1:5">
@@ -25299,7 +25299,7 @@
         <v>10</v>
       </c>
       <c r="D1557">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1557">
         <v>13</v>
@@ -25462,7 +25462,7 @@
         <v>14</v>
       </c>
       <c r="E1567">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1568" spans="1:5">
@@ -25735,7 +25735,7 @@
         <v>32</v>
       </c>
       <c r="E1584">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -25750,7 +25750,7 @@
         <v>18</v>
       </c>
       <c r="E1585">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1586" spans="1:5">
@@ -25793,10 +25793,10 @@
         <v>2020</v>
       </c>
       <c r="C1588">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1588">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1588">
         <v>7</v>
@@ -25808,10 +25808,10 @@
         <v>2021</v>
       </c>
       <c r="C1589">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D1589">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1589">
         <v>4</v>
@@ -25927,7 +25927,7 @@
         <v>20</v>
       </c>
       <c r="E1596">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1597" spans="1:5">
@@ -25942,7 +25942,7 @@
         <v>18</v>
       </c>
       <c r="E1597">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1598" spans="1:5">
@@ -26081,7 +26081,7 @@
         <v>2020</v>
       </c>
       <c r="C1606">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1606">
         <v>21</v>
@@ -26096,7 +26096,7 @@
         <v>2021</v>
       </c>
       <c r="C1607">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1607">
         <v>18</v>
@@ -26343,7 +26343,7 @@
         <v>22</v>
       </c>
       <c r="E1622">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1623" spans="1:5">
@@ -26358,7 +26358,7 @@
         <v>21</v>
       </c>
       <c r="E1623">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -26369,7 +26369,7 @@
         <v>2020</v>
       </c>
       <c r="C1624">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1624">
         <v>3</v>
@@ -26384,7 +26384,7 @@
         <v>2021</v>
       </c>
       <c r="C1625">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1625">
         <v>2</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="D1626">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E1626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -26419,10 +26419,10 @@
         <v>0</v>
       </c>
       <c r="D1627">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E1627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1628" spans="1:5">
@@ -26535,7 +26535,7 @@
         <v>22</v>
       </c>
       <c r="E1634">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1635" spans="1:5">
@@ -26550,7 +26550,7 @@
         <v>11</v>
       </c>
       <c r="E1635">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1636" spans="1:5">
@@ -26756,7 +26756,7 @@
         <v>0</v>
       </c>
       <c r="D1648">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1648">
         <v>1</v>
@@ -26771,7 +26771,7 @@
         <v>5</v>
       </c>
       <c r="D1649">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1649">
         <v>2</v>
@@ -26800,7 +26800,7 @@
         <v>2021</v>
       </c>
       <c r="C1651">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1651">
         <v>1</v>
@@ -26884,7 +26884,7 @@
         <v>0</v>
       </c>
       <c r="D1656">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E1656">
         <v>5</v>
@@ -26899,7 +26899,7 @@
         <v>7</v>
       </c>
       <c r="D1657">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E1657">
         <v>4</v>
@@ -26913,7 +26913,7 @@
         <v>2020</v>
       </c>
       <c r="C1658">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1658">
         <v>9</v>
@@ -26928,7 +26928,7 @@
         <v>2021</v>
       </c>
       <c r="C1659">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1659">
         <v>4</v>
@@ -27088,7 +27088,7 @@
         <v>2021</v>
       </c>
       <c r="C1669">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1669">
         <v>15</v>
@@ -27123,10 +27123,10 @@
         <v>1</v>
       </c>
       <c r="D1671">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1671">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1672" spans="1:5">
@@ -27222,7 +27222,7 @@
         <v>15</v>
       </c>
       <c r="E1677">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -27268,10 +27268,10 @@
         <v>0</v>
       </c>
       <c r="D1680">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1680">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -27283,10 +27283,10 @@
         <v>0</v>
       </c>
       <c r="D1681">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1681">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1682" spans="1:5">
@@ -27344,7 +27344,7 @@
         <v>2021</v>
       </c>
       <c r="C1685">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D1685">
         <v>31</v>
@@ -27361,7 +27361,7 @@
         <v>2020</v>
       </c>
       <c r="C1686">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1686">
         <v>17</v>
@@ -27376,10 +27376,10 @@
         <v>2021</v>
       </c>
       <c r="C1687">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D1687">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E1687">
         <v>8</v>
@@ -27460,10 +27460,10 @@
         <v>0</v>
       </c>
       <c r="D1692">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E1692">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1693" spans="1:5">
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="D1693">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E1693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1694" spans="1:5">
@@ -27553,7 +27553,7 @@
         <v>2020</v>
       </c>
       <c r="C1698">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1698">
         <v>11</v>
@@ -27568,7 +27568,7 @@
         <v>2021</v>
       </c>
       <c r="C1699">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1699">
         <v>15</v>
@@ -27635,7 +27635,7 @@
         <v>0</v>
       </c>
       <c r="D1703">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1703">
         <v>13</v>
@@ -27649,7 +27649,7 @@
         <v>2020</v>
       </c>
       <c r="C1704">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1704">
         <v>5</v>
@@ -27664,7 +27664,7 @@
         <v>2021</v>
       </c>
       <c r="C1705">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1705">
         <v>13</v>
@@ -27731,7 +27731,7 @@
         <v>0</v>
       </c>
       <c r="D1709">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E1709">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>5</v>
       </c>
       <c r="D1715">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1715">
         <v>5</v>
@@ -27879,7 +27879,7 @@
         <v>18</v>
       </c>
       <c r="E1718">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1719" spans="1:5">
@@ -27894,7 +27894,7 @@
         <v>19</v>
       </c>
       <c r="E1719">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1720" spans="1:5">
@@ -28051,7 +28051,7 @@
         <v>17</v>
       </c>
       <c r="D1729">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1729">
         <v>5</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="D1730">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E1730">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1731" spans="1:5">
@@ -28083,10 +28083,10 @@
         <v>0</v>
       </c>
       <c r="D1731">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E1731">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1732" spans="1:5">
@@ -28161,7 +28161,7 @@
         <v>2020</v>
       </c>
       <c r="C1736">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1736">
         <v>3</v>
@@ -28176,7 +28176,7 @@
         <v>2021</v>
       </c>
       <c r="C1737">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1737">
         <v>9</v>
@@ -28199,7 +28199,7 @@
         <v>25</v>
       </c>
       <c r="E1738">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1739" spans="1:5">
@@ -28214,7 +28214,7 @@
         <v>27</v>
       </c>
       <c r="E1739">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1740" spans="1:5">
@@ -28228,10 +28228,10 @@
         <v>0</v>
       </c>
       <c r="D1740">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E1740">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1741" spans="1:5">
@@ -28243,10 +28243,10 @@
         <v>0</v>
       </c>
       <c r="D1741">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E1741">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -28257,7 +28257,7 @@
         <v>2020</v>
       </c>
       <c r="C1742">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D1742">
         <v>10</v>
@@ -28272,10 +28272,10 @@
         <v>2021</v>
       </c>
       <c r="C1743">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D1743">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1743">
         <v>2</v>
@@ -28563,7 +28563,7 @@
         <v>0</v>
       </c>
       <c r="D1761">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1761">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>1</v>
       </c>
       <c r="D1764">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1764">
         <v>3</v>
@@ -28641,7 +28641,7 @@
         <v>2020</v>
       </c>
       <c r="C1766">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1766">
         <v>26</v>
@@ -28656,7 +28656,7 @@
         <v>2021</v>
       </c>
       <c r="C1767">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1767">
         <v>26</v>
@@ -28705,13 +28705,13 @@
         <v>2020</v>
       </c>
       <c r="C1770">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1770">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E1770">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -28723,10 +28723,10 @@
         <v>0</v>
       </c>
       <c r="D1771">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E1771">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1772" spans="1:5">
@@ -29543,7 +29543,7 @@
         <v>7</v>
       </c>
       <c r="E1822">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1823" spans="1:5">
@@ -29558,7 +29558,7 @@
         <v>11</v>
       </c>
       <c r="E1823">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1824" spans="1:5">
@@ -29729,7 +29729,7 @@
         <v>2020</v>
       </c>
       <c r="C1834">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1834">
         <v>0</v>
@@ -29744,7 +29744,7 @@
         <v>2021</v>
       </c>
       <c r="C1835">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1835">
         <v>0</v>
@@ -29782,7 +29782,7 @@
         <v>9</v>
       </c>
       <c r="E1837">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1838" spans="1:5">
@@ -29793,7 +29793,7 @@
         <v>2020</v>
       </c>
       <c r="C1838">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1838">
         <v>14</v>
@@ -29808,7 +29808,7 @@
         <v>2021</v>
       </c>
       <c r="C1839">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1839">
         <v>17</v>
@@ -29857,7 +29857,7 @@
         <v>2020</v>
       </c>
       <c r="C1842">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1842">
         <v>20</v>
@@ -29872,7 +29872,7 @@
         <v>2021</v>
       </c>
       <c r="C1843">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D1843">
         <v>25</v>
@@ -29910,7 +29910,7 @@
         <v>7</v>
       </c>
       <c r="E1845">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1846" spans="1:5">
@@ -29921,7 +29921,7 @@
         <v>2020</v>
       </c>
       <c r="C1846">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1846">
         <v>21</v>
@@ -29936,7 +29936,7 @@
         <v>2021</v>
       </c>
       <c r="C1847">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1847">
         <v>23</v>
@@ -29959,7 +29959,7 @@
         <v>14</v>
       </c>
       <c r="E1848">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1849" spans="1:5">
@@ -29974,7 +29974,7 @@
         <v>17</v>
       </c>
       <c r="E1849">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1850" spans="1:5">
@@ -30049,7 +30049,7 @@
         <v>2020</v>
       </c>
       <c r="C1854">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1854">
         <v>17</v>
@@ -30064,7 +30064,7 @@
         <v>2021</v>
       </c>
       <c r="C1855">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1855">
         <v>15</v>
@@ -30116,10 +30116,10 @@
         <v>24</v>
       </c>
       <c r="D1858">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1858">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1859" spans="1:5">
@@ -30131,10 +30131,10 @@
         <v>0</v>
       </c>
       <c r="D1859">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1859">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1860" spans="1:5">
@@ -30343,7 +30343,7 @@
         <v>19</v>
       </c>
       <c r="E1872">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1873" spans="1:5">
@@ -30358,7 +30358,7 @@
         <v>20</v>
       </c>
       <c r="E1873">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1874" spans="1:5">
@@ -30375,7 +30375,7 @@
         <v>24</v>
       </c>
       <c r="E1874">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1875" spans="1:5">
@@ -30390,7 +30390,7 @@
         <v>16</v>
       </c>
       <c r="E1875">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1876" spans="1:5">
@@ -30404,10 +30404,10 @@
         <v>0</v>
       </c>
       <c r="D1876">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E1876">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1877" spans="1:5">
@@ -30416,13 +30416,13 @@
         <v>2021</v>
       </c>
       <c r="C1877">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1877">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E1877">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1878" spans="1:5">
@@ -30753,7 +30753,7 @@
         <v>2020</v>
       </c>
       <c r="C1898">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1898">
         <v>3</v>
@@ -30768,7 +30768,7 @@
         <v>2021</v>
       </c>
       <c r="C1899">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1899">
         <v>16</v>
@@ -30835,7 +30835,7 @@
         <v>0</v>
       </c>
       <c r="D1903">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1903">
         <v>0</v>
@@ -31143,7 +31143,7 @@
         <v>9</v>
       </c>
       <c r="E1922">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1923" spans="1:5">
@@ -31158,7 +31158,7 @@
         <v>5</v>
       </c>
       <c r="E1923">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1924" spans="1:5">
@@ -31283,7 +31283,7 @@
         <v>0</v>
       </c>
       <c r="D1931">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="E1931">
         <v>18</v>
@@ -31344,7 +31344,7 @@
         <v>2021</v>
       </c>
       <c r="C1935">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1935">
         <v>11</v>
@@ -31443,7 +31443,7 @@
         <v>0</v>
       </c>
       <c r="D1941">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1941">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>2021</v>
       </c>
       <c r="C1951">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1951">
         <v>7</v>
@@ -31702,7 +31702,7 @@
         <v>4</v>
       </c>
       <c r="E1957">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1958" spans="1:5">
@@ -31911,7 +31911,7 @@
         <v>9</v>
       </c>
       <c r="E1970">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1971" spans="1:5">
@@ -32068,7 +32068,7 @@
         <v>1</v>
       </c>
       <c r="D1980">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1980">
         <v>6</v>
@@ -32278,7 +32278,7 @@
         <v>0</v>
       </c>
       <c r="E1993">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1994" spans="1:5">
@@ -32304,7 +32304,7 @@
         <v>2021</v>
       </c>
       <c r="C1995">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1995">
         <v>23</v>
@@ -32371,7 +32371,7 @@
         <v>5</v>
       </c>
       <c r="D1999">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1999">
         <v>6</v>
@@ -32583,7 +32583,7 @@
         <v>1</v>
       </c>
       <c r="E2012">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2013" spans="1:5">
@@ -32598,7 +32598,7 @@
         <v>0</v>
       </c>
       <c r="E2013">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2014" spans="1:5">
@@ -32743,7 +32743,7 @@
         <v>22</v>
       </c>
       <c r="E2022">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2023" spans="1:5">
@@ -32758,7 +32758,7 @@
         <v>22</v>
       </c>
       <c r="E2023">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2024" spans="1:5">
@@ -32854,7 +32854,7 @@
         <v>23</v>
       </c>
       <c r="E2029">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2030" spans="1:5">
@@ -32880,10 +32880,10 @@
         <v>2021</v>
       </c>
       <c r="C2031">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2031">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2031">
         <v>12</v>
@@ -32999,7 +32999,7 @@
         <v>14</v>
       </c>
       <c r="E2038">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2039" spans="1:5">
@@ -33014,7 +33014,7 @@
         <v>11</v>
       </c>
       <c r="E2039">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2040" spans="1:5">
@@ -33031,7 +33031,7 @@
         <v>7</v>
       </c>
       <c r="E2040">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2041" spans="1:5">
@@ -33040,13 +33040,13 @@
         <v>2021</v>
       </c>
       <c r="C2041">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2041">
         <v>6</v>
       </c>
       <c r="E2041">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2042" spans="1:5">
@@ -33089,7 +33089,7 @@
         <v>2020</v>
       </c>
       <c r="C2044">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2044">
         <v>9</v>
@@ -33104,7 +33104,7 @@
         <v>2021</v>
       </c>
       <c r="C2045">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D2045">
         <v>8</v>
@@ -33287,7 +33287,7 @@
         <v>9</v>
       </c>
       <c r="E2056">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2057" spans="1:5">
@@ -33313,13 +33313,13 @@
         <v>2020</v>
       </c>
       <c r="C2058">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2058">
         <v>14</v>
       </c>
       <c r="E2058">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2059" spans="1:5">
@@ -33328,7 +33328,7 @@
         <v>2021</v>
       </c>
       <c r="C2059">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2059">
         <v>28</v>
@@ -33351,7 +33351,7 @@
         <v>17</v>
       </c>
       <c r="E2060">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2061" spans="1:5">
@@ -33366,7 +33366,7 @@
         <v>20</v>
       </c>
       <c r="E2061">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2062" spans="1:5">
@@ -33476,7 +33476,7 @@
         <v>0</v>
       </c>
       <c r="D2068">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2068">
         <v>9</v>
@@ -33491,7 +33491,7 @@
         <v>0</v>
       </c>
       <c r="D2069">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2069">
         <v>1</v>
@@ -33619,7 +33619,7 @@
         <v>0</v>
       </c>
       <c r="D2077">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2077">
         <v>13</v>
@@ -33639,7 +33639,7 @@
         <v>27</v>
       </c>
       <c r="E2078">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2079" spans="1:5">
@@ -33761,7 +33761,7 @@
         <v>2020</v>
       </c>
       <c r="C2086">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2086">
         <v>9</v>
@@ -33910,7 +33910,7 @@
         <v>23</v>
       </c>
       <c r="E2095">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2096" spans="1:5">
@@ -33959,7 +33959,7 @@
         <v>14</v>
       </c>
       <c r="E2098">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2099" spans="1:5">
@@ -33974,7 +33974,7 @@
         <v>8</v>
       </c>
       <c r="E2099">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2100" spans="1:5">
@@ -34052,7 +34052,7 @@
         <v>0</v>
       </c>
       <c r="D2104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2104">
         <v>0</v>
@@ -34067,7 +34067,7 @@
         <v>0</v>
       </c>
       <c r="D2105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2105">
         <v>0</v>
@@ -34151,7 +34151,7 @@
         <v>2</v>
       </c>
       <c r="E2110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2111" spans="1:5">
@@ -34160,13 +34160,13 @@
         <v>2021</v>
       </c>
       <c r="C2111">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D2111">
         <v>3</v>
       </c>
       <c r="E2111">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2112" spans="1:5">
@@ -34256,7 +34256,7 @@
         <v>2021</v>
       </c>
       <c r="C2117">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2117">
         <v>18</v>
@@ -34311,7 +34311,7 @@
         <v>10</v>
       </c>
       <c r="E2120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2121" spans="1:5">
@@ -34326,7 +34326,7 @@
         <v>10</v>
       </c>
       <c r="E2121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2122" spans="1:5">
@@ -34372,10 +34372,10 @@
         <v>0</v>
       </c>
       <c r="D2124">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E2124">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2125" spans="1:5">
@@ -34387,10 +34387,10 @@
         <v>0</v>
       </c>
       <c r="D2125">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E2125">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2126" spans="1:5">
@@ -34433,7 +34433,7 @@
         <v>2020</v>
       </c>
       <c r="C2128">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2128">
         <v>15</v>
@@ -34448,13 +34448,13 @@
         <v>2021</v>
       </c>
       <c r="C2129">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2129">
         <v>11</v>
       </c>
       <c r="E2129">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2130" spans="1:5">
@@ -34567,7 +34567,7 @@
         <v>11</v>
       </c>
       <c r="E2136">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2137" spans="1:5">
@@ -34579,10 +34579,10 @@
         <v>10</v>
       </c>
       <c r="D2137">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2137">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2138" spans="1:5">
@@ -34791,7 +34791,7 @@
         <v>21</v>
       </c>
       <c r="E2150">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2151" spans="1:5">
@@ -34806,7 +34806,7 @@
         <v>24</v>
       </c>
       <c r="E2151">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2152" spans="1:5">
@@ -34916,10 +34916,10 @@
         <v>13</v>
       </c>
       <c r="D2158">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2158">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2159" spans="1:5">
@@ -34934,7 +34934,7 @@
         <v>28</v>
       </c>
       <c r="E2159">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2160" spans="1:5">
@@ -34948,7 +34948,7 @@
         <v>0</v>
       </c>
       <c r="D2160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2160">
         <v>2</v>
@@ -34963,7 +34963,7 @@
         <v>0</v>
       </c>
       <c r="D2161">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2161">
         <v>0</v>
@@ -35623,7 +35623,7 @@
         <v>31</v>
       </c>
       <c r="E2202">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2203" spans="1:5">
@@ -35649,7 +35649,7 @@
         <v>2020</v>
       </c>
       <c r="C2204">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2204">
         <v>23</v>
@@ -35681,13 +35681,13 @@
         <v>2020</v>
       </c>
       <c r="C2206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2206">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2206">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2207" spans="1:5">
@@ -35696,13 +35696,13 @@
         <v>2021</v>
       </c>
       <c r="C2207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2207">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2207">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2208" spans="1:5">
@@ -35716,7 +35716,7 @@
         <v>1</v>
       </c>
       <c r="D2208">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2208">
         <v>8</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="D2209">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2209">
         <v>32</v>
@@ -35751,7 +35751,7 @@
         <v>18</v>
       </c>
       <c r="E2210">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2211" spans="1:5">
@@ -35766,7 +35766,7 @@
         <v>34</v>
       </c>
       <c r="E2211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2212" spans="1:5">
@@ -35777,13 +35777,13 @@
         <v>2020</v>
       </c>
       <c r="C2212">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2212">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E2212">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2213" spans="1:5">
@@ -35792,13 +35792,13 @@
         <v>2021</v>
       </c>
       <c r="C2213">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2213">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E2213">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2214" spans="1:5">
@@ -35812,10 +35812,10 @@
         <v>0</v>
       </c>
       <c r="D2214">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E2214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2215" spans="1:5">
@@ -35827,10 +35827,10 @@
         <v>0</v>
       </c>
       <c r="D2215">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2216" spans="1:5">
@@ -35859,7 +35859,7 @@
         <v>0</v>
       </c>
       <c r="D2217">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2217">
         <v>3</v>
@@ -36051,7 +36051,7 @@
         <v>0</v>
       </c>
       <c r="D2229">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2229">
         <v>5</v>
@@ -36243,7 +36243,7 @@
         <v>0</v>
       </c>
       <c r="D2241">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2241">
         <v>1</v>
@@ -36260,10 +36260,10 @@
         <v>0</v>
       </c>
       <c r="D2242">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E2242">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2243" spans="1:5">
@@ -36275,10 +36275,10 @@
         <v>0</v>
       </c>
       <c r="D2243">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E2243">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2244" spans="1:5">
@@ -36481,7 +36481,7 @@
         <v>2020</v>
       </c>
       <c r="C2256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2256">
         <v>2</v>
@@ -36496,7 +36496,7 @@
         <v>2021</v>
       </c>
       <c r="C2257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2257">
         <v>4</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="D2258">
+        <v>2</v>
+      </c>
+      <c r="E2258">
         <v>4</v>
-      </c>
-      <c r="E2258">
-        <v>8</v>
       </c>
     </row>
     <row r="2259" spans="1:5">
@@ -36531,10 +36531,10 @@
         <v>1</v>
       </c>
       <c r="D2259">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2259">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2260" spans="1:5">
@@ -36563,7 +36563,7 @@
         <v>0</v>
       </c>
       <c r="D2261">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2261">
         <v>5</v>
@@ -36583,7 +36583,7 @@
         <v>14</v>
       </c>
       <c r="E2262">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2263" spans="1:5">
@@ -36679,7 +36679,7 @@
         <v>16</v>
       </c>
       <c r="E2268">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2269" spans="1:5">
@@ -36694,7 +36694,7 @@
         <v>19</v>
       </c>
       <c r="E2269">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2270" spans="1:5">
@@ -36807,7 +36807,7 @@
         <v>33</v>
       </c>
       <c r="E2276">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2277" spans="1:5">
@@ -36822,7 +36822,7 @@
         <v>27</v>
       </c>
       <c r="E2277">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2278" spans="1:5">
@@ -36865,7 +36865,7 @@
         <v>2020</v>
       </c>
       <c r="C2280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2280">
         <v>24</v>
@@ -36880,7 +36880,7 @@
         <v>2021</v>
       </c>
       <c r="C2281">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2281">
         <v>15</v>
@@ -37238,7 +37238,7 @@
         <v>10</v>
       </c>
       <c r="E2303">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2304" spans="1:5">
@@ -37505,7 +37505,7 @@
         <v>2020</v>
       </c>
       <c r="C2320">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D2320">
         <v>13</v>
@@ -37520,10 +37520,10 @@
         <v>2021</v>
       </c>
       <c r="C2321">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D2321">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2321">
         <v>2</v>
@@ -37607,7 +37607,7 @@
         <v>1</v>
       </c>
       <c r="E2326">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2327" spans="1:5">
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="E2327">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2328" spans="1:5">
@@ -37744,7 +37744,7 @@
         <v>2021</v>
       </c>
       <c r="C2335">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2335">
         <v>12</v>
@@ -37828,7 +37828,7 @@
         <v>0</v>
       </c>
       <c r="D2340">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2340">
         <v>2</v>
@@ -38134,7 +38134,7 @@
         <v>0</v>
       </c>
       <c r="E2359">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2360" spans="1:5">
@@ -38311,7 +38311,7 @@
         <v>9</v>
       </c>
       <c r="E2370">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2371" spans="1:5">
@@ -38375,7 +38375,7 @@
         <v>20</v>
       </c>
       <c r="E2374">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2375" spans="1:5">
@@ -38390,7 +38390,7 @@
         <v>24</v>
       </c>
       <c r="E2375">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2376" spans="1:5">
@@ -38436,7 +38436,7 @@
         <v>7</v>
       </c>
       <c r="D2378">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2378">
         <v>3</v>
@@ -38468,7 +38468,7 @@
         <v>0</v>
       </c>
       <c r="D2380">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2380">
         <v>4</v>
@@ -38483,7 +38483,7 @@
         <v>0</v>
       </c>
       <c r="D2381">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2381">
         <v>4</v>
@@ -38547,7 +38547,7 @@
         <v>3</v>
       </c>
       <c r="D2385">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E2385">
         <v>5</v>
@@ -38625,10 +38625,10 @@
         <v>2020</v>
       </c>
       <c r="C2390">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2390">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2390">
         <v>4</v>
@@ -38756,10 +38756,10 @@
         <v>0</v>
       </c>
       <c r="D2398">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2398">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2399" spans="1:5">
@@ -38771,10 +38771,10 @@
         <v>0</v>
       </c>
       <c r="D2399">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2399">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2400" spans="1:5">
@@ -38800,7 +38800,7 @@
         <v>2021</v>
       </c>
       <c r="C2401">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2401">
         <v>26</v>
@@ -38849,7 +38849,7 @@
         <v>2020</v>
       </c>
       <c r="C2404">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2404">
         <v>13</v>
@@ -38864,7 +38864,7 @@
         <v>2021</v>
       </c>
       <c r="C2405">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2405">
         <v>23</v>
@@ -38977,7 +38977,7 @@
         <v>2020</v>
       </c>
       <c r="C2412">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2412">
         <v>23</v>
@@ -38992,10 +38992,10 @@
         <v>2021</v>
       </c>
       <c r="C2413">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D2413">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2413">
         <v>20</v>
@@ -39009,7 +39009,7 @@
         <v>2020</v>
       </c>
       <c r="C2414">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2414">
         <v>28</v>
@@ -39024,7 +39024,7 @@
         <v>2021</v>
       </c>
       <c r="C2415">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2415">
         <v>24</v>
@@ -39108,7 +39108,7 @@
         <v>0</v>
       </c>
       <c r="D2420">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2420">
         <v>5</v>
@@ -39329,7 +39329,7 @@
         <v>2020</v>
       </c>
       <c r="C2434">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2434">
         <v>14</v>
@@ -39344,10 +39344,10 @@
         <v>2021</v>
       </c>
       <c r="C2435">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2435">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2435">
         <v>27</v>
@@ -39536,13 +39536,13 @@
         <v>2021</v>
       </c>
       <c r="C2447">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2447">
         <v>15</v>
       </c>
       <c r="E2447">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2448" spans="1:5">
@@ -39862,7 +39862,7 @@
         <v>27</v>
       </c>
       <c r="E2467">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2468" spans="1:5">
@@ -39879,7 +39879,7 @@
         <v>16</v>
       </c>
       <c r="E2468">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2469" spans="1:5">
@@ -39911,7 +39911,7 @@
         <v>18</v>
       </c>
       <c r="E2470">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2471" spans="1:5">
@@ -40144,7 +40144,7 @@
         <v>2021</v>
       </c>
       <c r="C2485">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2485">
         <v>19</v>
@@ -40176,7 +40176,7 @@
         <v>2021</v>
       </c>
       <c r="C2487">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2487">
         <v>13</v>
@@ -40228,7 +40228,7 @@
         <v>7</v>
       </c>
       <c r="D2490">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2490">
         <v>1</v>
@@ -40243,7 +40243,7 @@
         <v>3</v>
       </c>
       <c r="D2491">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2491">
         <v>4</v>
@@ -40278,7 +40278,7 @@
         <v>6</v>
       </c>
       <c r="E2493">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2494" spans="1:5">
@@ -40403,7 +40403,7 @@
         <v>2</v>
       </c>
       <c r="D2501">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E2501">
         <v>22</v>
@@ -40513,10 +40513,10 @@
         <v>2020</v>
       </c>
       <c r="C2508">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2508">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2508">
         <v>3</v>
@@ -40528,10 +40528,10 @@
         <v>2021</v>
       </c>
       <c r="C2509">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2509">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2509">
         <v>1</v>
@@ -40551,7 +40551,7 @@
         <v>0</v>
       </c>
       <c r="E2510">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2511" spans="1:5">
@@ -40595,7 +40595,7 @@
         <v>0</v>
       </c>
       <c r="D2513">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2513">
         <v>2</v>
@@ -40630,7 +40630,7 @@
         <v>1</v>
       </c>
       <c r="E2515">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2516" spans="1:5">
@@ -40679,7 +40679,7 @@
         <v>0</v>
       </c>
       <c r="E2518">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2519" spans="1:5">
@@ -40694,7 +40694,7 @@
         <v>0</v>
       </c>
       <c r="E2519">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2520" spans="1:5">
@@ -40737,7 +40737,7 @@
         <v>2020</v>
       </c>
       <c r="C2522">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2522">
         <v>6</v>
@@ -40752,7 +40752,7 @@
         <v>2021</v>
       </c>
       <c r="C2523">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2523">
         <v>22</v>
@@ -40804,10 +40804,10 @@
         <v>0</v>
       </c>
       <c r="D2526">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E2526">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2527" spans="1:5">
@@ -40819,10 +40819,10 @@
         <v>0</v>
       </c>
       <c r="D2527">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E2527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2528" spans="1:5">
@@ -41139,7 +41139,7 @@
         <v>82</v>
       </c>
       <c r="D2547">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2547">
         <v>56</v>
@@ -41156,10 +41156,10 @@
         <v>0</v>
       </c>
       <c r="D2548">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E2548">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2549" spans="1:5">
@@ -41171,10 +41171,10 @@
         <v>0</v>
       </c>
       <c r="D2549">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2549">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2550" spans="1:5">
@@ -41185,7 +41185,7 @@
         <v>2020</v>
       </c>
       <c r="C2550">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2550">
         <v>4</v>
@@ -41200,7 +41200,7 @@
         <v>2021</v>
       </c>
       <c r="C2551">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2551">
         <v>2</v>
@@ -41264,7 +41264,7 @@
         <v>2021</v>
       </c>
       <c r="C2555">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2555">
         <v>0</v>
@@ -41412,7 +41412,7 @@
         <v>0</v>
       </c>
       <c r="D2564">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2564">
         <v>7</v>
@@ -41427,7 +41427,7 @@
         <v>3</v>
       </c>
       <c r="D2565">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2565">
         <v>2</v>
@@ -41441,13 +41441,13 @@
         <v>2020</v>
       </c>
       <c r="C2566">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2566">
         <v>11</v>
       </c>
       <c r="E2566">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2567" spans="1:5">
@@ -41456,13 +41456,13 @@
         <v>2021</v>
       </c>
       <c r="C2567">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2567">
         <v>27</v>
       </c>
       <c r="E2567">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2568" spans="1:5">
@@ -41793,7 +41793,7 @@
         <v>2020</v>
       </c>
       <c r="C2588">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2588">
         <v>19</v>
@@ -41808,7 +41808,7 @@
         <v>2021</v>
       </c>
       <c r="C2589">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D2589">
         <v>22</v>
@@ -41889,13 +41889,13 @@
         <v>2020</v>
       </c>
       <c r="C2594">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2594">
         <v>9</v>
       </c>
       <c r="E2594">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2595" spans="1:5">
@@ -41904,13 +41904,13 @@
         <v>2021</v>
       </c>
       <c r="C2595">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2595">
         <v>41</v>
       </c>
       <c r="E2595">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2596" spans="1:5">
@@ -41927,7 +41927,7 @@
         <v>15</v>
       </c>
       <c r="E2596">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2597" spans="1:5">
@@ -41942,7 +41942,7 @@
         <v>11</v>
       </c>
       <c r="E2597">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2598" spans="1:5">
@@ -42000,10 +42000,10 @@
         <v>2021</v>
       </c>
       <c r="C2601">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2601">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2601">
         <v>7</v>
@@ -42241,10 +42241,10 @@
         <v>2020</v>
       </c>
       <c r="C2616">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2616">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2616">
         <v>7</v>
@@ -42256,10 +42256,10 @@
         <v>2021</v>
       </c>
       <c r="C2617">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2617">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2617">
         <v>3</v>
@@ -42276,7 +42276,7 @@
         <v>0</v>
       </c>
       <c r="D2618">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2618">
         <v>0</v>
@@ -42291,7 +42291,7 @@
         <v>0</v>
       </c>
       <c r="D2619">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2619">
         <v>0</v>
@@ -42404,7 +42404,7 @@
         <v>0</v>
       </c>
       <c r="D2626">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2626">
         <v>0</v>
@@ -42419,7 +42419,7 @@
         <v>0</v>
       </c>
       <c r="D2627">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2627">
         <v>1</v>
@@ -42468,7 +42468,7 @@
         <v>0</v>
       </c>
       <c r="D2630">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2630">
         <v>2</v>
@@ -42550,7 +42550,7 @@
         <v>10</v>
       </c>
       <c r="E2635">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2636" spans="1:5">
@@ -42710,7 +42710,7 @@
         <v>16</v>
       </c>
       <c r="E2645">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2646" spans="1:5">
@@ -42980,10 +42980,10 @@
         <v>0</v>
       </c>
       <c r="D2662">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2662">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2663" spans="1:5">
@@ -42995,10 +42995,10 @@
         <v>2</v>
       </c>
       <c r="D2663">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2663">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2664" spans="1:5">
@@ -43041,7 +43041,7 @@
         <v>2020</v>
       </c>
       <c r="C2666">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2666">
         <v>5</v>
@@ -43248,7 +43248,7 @@
         <v>2021</v>
       </c>
       <c r="C2679">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2679">
         <v>11</v>
@@ -44016,7 +44016,7 @@
         <v>2021</v>
       </c>
       <c r="C2727">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D2727">
         <v>14</v>
@@ -44118,7 +44118,7 @@
         <v>6</v>
       </c>
       <c r="E2733">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2734" spans="1:5">
@@ -44304,10 +44304,10 @@
         <v>2021</v>
       </c>
       <c r="C2745">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D2745">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2745">
         <v>0</v>
@@ -44420,7 +44420,7 @@
         <v>0</v>
       </c>
       <c r="D2752">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2752">
         <v>2</v>
@@ -44435,7 +44435,7 @@
         <v>1</v>
       </c>
       <c r="D2753">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2753">
         <v>3</v>
